--- a/seq_template.xlsx
+++ b/seq_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Git\T_cell_Transcriptome_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\medizin.uni-leipzig.de\data\Users\Sudarsanam\Eigene Dateien\GitHub\T_cell_Transcriptome_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1380" windowWidth="23340" windowHeight="15290" tabRatio="712" activeTab="5"/>
+    <workbookView xWindow="1830" yWindow="1380" windowWidth="23340" windowHeight="15285" tabRatio="712" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1. Checklist" sheetId="12" r:id="rId1"/>
@@ -8192,9 +8192,6 @@
     <t xml:space="preserve">for Harish </t>
   </si>
   <si>
-    <t>for max</t>
-  </si>
-  <si>
     <t>total RNA-seq</t>
   </si>
   <si>
@@ -8208,13 +8205,16 @@
   </si>
   <si>
     <t>GRCh38.104</t>
+  </si>
+  <si>
+    <t>tab-delimited text files include raw count values for each Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8575,6 +8575,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -8741,7 +8747,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -8967,6 +8973,18 @@
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="54" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -8985,57 +9003,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="40 % - Akzent1" xfId="3" builtinId="31"/>
-    <cellStyle name="Akzent5" xfId="18" builtinId="45"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="Accent5" xfId="18" builtinId="45"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCC9900"/>
       <color rgb="FFBDD7EE"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF000000"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -10728,41 +10735,41 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="162.26953125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="74.7265625" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="7"/>
+    <col min="1" max="1" width="162.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="91"/>
-    </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="99" t="s">
+      <c r="B1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="99"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="100" t="s">
+      <c r="B3" s="94"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="91"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-    </row>
-    <row r="6" spans="1:8" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+    </row>
+    <row r="6" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10770,7 +10777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>355</v>
       </c>
@@ -10778,7 +10785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>354</v>
       </c>
@@ -10786,7 +10793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>353</v>
       </c>
@@ -10796,7 +10803,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>352</v>
       </c>
@@ -10804,13 +10811,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="15" customFormat="1" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="15" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>351</v>
       </c>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>350</v>
       </c>
@@ -10818,7 +10825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>349</v>
       </c>
@@ -10826,7 +10833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>357</v>
       </c>
@@ -10834,7 +10841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>356</v>
       </c>
@@ -10846,7 +10853,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8" s="36" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="36" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>327</v>
       </c>
@@ -10856,80 +10863,80 @@
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
     </row>
-    <row r="17" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
+    <row r="17" spans="1:6" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="92" t="s">
+    <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="96" t="s">
         <v>346</v>
       </c>
-      <c r="B18" s="93"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="8"/>
       <c r="D18" s="13"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="94" t="s">
+    <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="94"/>
-    </row>
-    <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="97" t="s">
+      <c r="B19" s="98"/>
+    </row>
+    <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="92" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="97"/>
-    </row>
-    <row r="21" spans="1:6" ht="315" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="97" t="s">
+      <c r="B20" s="92"/>
+    </row>
+    <row r="21" spans="1:6" ht="315" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="92" t="s">
         <v>345</v>
       </c>
-      <c r="B21" s="97"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="100"/>
-      <c r="B25" s="100"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
-      <c r="B27" s="100"/>
+      <c r="B21" s="92"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="categories"/>
@@ -10957,34 +10964,34 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="83.7265625" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.7265625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="43.1796875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="46.7265625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="115.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="116.7265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="115.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="116.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="21" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.7265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="19.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="17" style="21" customWidth="1"/>
-    <col min="22" max="16384" width="83.7265625" style="21"/>
+    <col min="22" max="16384" width="83.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="62" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="62" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="38" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="38" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>320</v>
       </c>
@@ -10993,14 +11000,14 @@
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
     </row>
-    <row r="3" spans="1:19" s="40" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -11021,7 +11028,7 @@
       <c r="R4" s="41"/>
       <c r="S4" s="41"/>
     </row>
-    <row r="5" spans="1:19" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>32</v>
       </c>
@@ -11044,7 +11051,7 @@
       <c r="R5" s="42"/>
       <c r="S5" s="42"/>
     </row>
-    <row r="6" spans="1:19" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>47</v>
       </c>
@@ -11067,7 +11074,7 @@
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
     </row>
-    <row r="7" spans="1:19" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>45</v>
       </c>
@@ -11089,7 +11096,7 @@
       <c r="R7" s="44"/>
       <c r="S7" s="44"/>
     </row>
-    <row r="8" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
@@ -11097,7 +11104,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>35</v>
       </c>
@@ -11105,7 +11112,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>33</v>
       </c>
@@ -11113,7 +11120,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="65" t="s">
         <v>303</v>
       </c>
@@ -11121,7 +11128,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>303</v>
       </c>
@@ -11129,7 +11136,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
         <v>303</v>
       </c>
@@ -11138,7 +11145,7 @@
       </c>
       <c r="D13" s="66"/>
     </row>
-    <row r="14" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="s">
         <v>303</v>
       </c>
@@ -11146,13 +11153,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
         <v>321</v>
       </c>
       <c r="B15" s="73"/>
     </row>
-    <row r="16" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
         <v>321</v>
       </c>
@@ -11160,7 +11167,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="65" t="s">
         <v>321</v>
       </c>
@@ -11168,7 +11175,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="65" t="s">
         <v>321</v>
       </c>
@@ -11176,7 +11183,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
         <v>321</v>
       </c>
@@ -11201,7 +11208,7 @@
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
     </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
         <v>321</v>
       </c>
@@ -11226,7 +11233,7 @@
       <c r="R20" s="26"/>
       <c r="S20" s="26"/>
     </row>
-    <row r="21" spans="1:21" s="88" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" s="88" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
       <c r="B21" s="18"/>
       <c r="C21" s="26"/>
@@ -11247,7 +11254,7 @@
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
     </row>
-    <row r="22" spans="1:21" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>1</v>
       </c>
@@ -11270,7 +11277,7 @@
       <c r="R22" s="27"/>
       <c r="S22" s="42"/>
     </row>
-    <row r="23" spans="1:21" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>44</v>
       </c>
@@ -11293,7 +11300,7 @@
       <c r="R23" s="43"/>
       <c r="S23" s="44"/>
     </row>
-    <row r="24" spans="1:21" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>326</v>
       </c>
@@ -11316,7 +11323,7 @@
       <c r="R24" s="43"/>
       <c r="S24" s="44"/>
     </row>
-    <row r="25" spans="1:21" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>328</v>
       </c>
@@ -11336,7 +11343,7 @@
       <c r="O25" s="43"/>
       <c r="P25" s="44"/>
     </row>
-    <row r="26" spans="1:21" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>329</v>
       </c>
@@ -11356,7 +11363,7 @@
       <c r="O26" s="43"/>
       <c r="P26" s="44"/>
     </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>42</v>
       </c>
@@ -11421,7 +11428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="73" t="s">
         <v>281</v>
       </c>
@@ -11480,7 +11487,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="73" t="s">
         <v>285</v>
       </c>
@@ -11539,7 +11546,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="73" t="s">
         <v>287</v>
       </c>
@@ -11598,7 +11605,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="20"/>
       <c r="G31" s="80"/>
       <c r="H31" s="20"/>
@@ -11607,7 +11614,7 @@
       <c r="R31" s="78"/>
       <c r="S31" s="78"/>
     </row>
-    <row r="32" spans="1:21" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="72"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
@@ -11628,7 +11635,7 @@
       <c r="R32" s="49"/>
       <c r="S32" s="49"/>
     </row>
-    <row r="33" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -11649,7 +11656,7 @@
       <c r="R33" s="28"/>
       <c r="S33" s="28"/>
     </row>
-    <row r="34" spans="1:19" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>43</v>
       </c>
@@ -11672,7 +11679,7 @@
       <c r="R34" s="27"/>
       <c r="S34" s="42"/>
     </row>
-    <row r="35" spans="1:19" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>46</v>
       </c>
@@ -11695,7 +11702,7 @@
       <c r="R35" s="43"/>
       <c r="S35" s="44"/>
     </row>
-    <row r="36" spans="1:19" s="87" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" s="87" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="85" t="s">
         <v>322</v>
       </c>
@@ -11715,7 +11722,7 @@
       <c r="O36" s="85"/>
       <c r="P36" s="86"/>
     </row>
-    <row r="37" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="65" t="s">
         <v>323</v>
       </c>
@@ -11738,7 +11745,7 @@
       <c r="R37" s="29"/>
       <c r="S37" s="29"/>
     </row>
-    <row r="38" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="65" t="s">
         <v>324</v>
       </c>
@@ -11761,7 +11768,7 @@
       <c r="R38" s="29"/>
       <c r="S38" s="29"/>
     </row>
-    <row r="39" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="65" t="s">
         <v>324</v>
       </c>
@@ -11784,7 +11791,7 @@
       <c r="R39" s="29"/>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
         <v>7</v>
       </c>
@@ -11809,7 +11816,7 @@
       <c r="R40" s="29"/>
       <c r="S40" s="29"/>
     </row>
-    <row r="41" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="65" t="s">
         <v>8</v>
       </c>
@@ -11834,7 +11841,7 @@
       <c r="R41" s="29"/>
       <c r="S41" s="29"/>
     </row>
-    <row r="42" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="65" t="s">
         <v>8</v>
       </c>
@@ -11859,7 +11866,7 @@
       <c r="R42" s="29"/>
       <c r="S42" s="29"/>
     </row>
-    <row r="43" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="65" t="s">
         <v>8</v>
       </c>
@@ -11884,7 +11891,7 @@
       <c r="R43" s="29"/>
       <c r="S43" s="29"/>
     </row>
-    <row r="44" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="65" t="s">
         <v>8</v>
       </c>
@@ -11909,7 +11916,7 @@
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
     </row>
-    <row r="45" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="65" t="s">
         <v>8</v>
       </c>
@@ -11934,7 +11941,7 @@
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
     </row>
-    <row r="46" spans="1:19" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="65" t="s">
         <v>9</v>
       </c>
@@ -11959,7 +11966,7 @@
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
     </row>
-    <row r="47" spans="1:19" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="65"/>
       <c r="B47" s="73"/>
       <c r="C47" s="29"/>
@@ -11980,7 +11987,7 @@
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
     </row>
-    <row r="48" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="65" t="s">
         <v>10</v>
       </c>
@@ -12005,7 +12012,7 @@
       <c r="R48" s="29"/>
       <c r="S48" s="29"/>
     </row>
-    <row r="49" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="65" t="s">
         <v>10</v>
       </c>
@@ -12030,7 +12037,7 @@
       <c r="R49" s="29"/>
       <c r="S49" s="29"/>
     </row>
-    <row r="50" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="65" t="s">
         <v>10</v>
       </c>
@@ -12053,7 +12060,7 @@
       <c r="R50" s="29"/>
       <c r="S50" s="29"/>
     </row>
-    <row r="51" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="65" t="s">
         <v>10</v>
       </c>
@@ -12076,7 +12083,7 @@
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
     </row>
-    <row r="52" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="65" t="s">
         <v>10</v>
       </c>
@@ -12099,7 +12106,7 @@
       <c r="R52" s="29"/>
       <c r="S52" s="29"/>
     </row>
-    <row r="53" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="65" t="s">
         <v>341</v>
       </c>
@@ -12124,7 +12131,7 @@
       <c r="R53" s="49"/>
       <c r="S53" s="49"/>
     </row>
-    <row r="54" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="65" t="s">
         <v>11</v>
       </c>
@@ -12149,7 +12156,7 @@
       <c r="R54" s="29"/>
       <c r="S54" s="29"/>
     </row>
-    <row r="55" spans="1:19" s="88" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" s="88" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="67"/>
       <c r="B55" s="30"/>
       <c r="C55" s="49"/>
@@ -12170,7 +12177,7 @@
       <c r="R55" s="49"/>
       <c r="S55" s="49"/>
     </row>
-    <row r="56" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="50"/>
       <c r="B56" s="50"/>
       <c r="C56" s="50"/>
@@ -12191,7 +12198,7 @@
       <c r="R56" s="50"/>
       <c r="S56" s="50"/>
     </row>
-    <row r="57" spans="1:19" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
         <v>14</v>
       </c>
@@ -12214,7 +12221,7 @@
       <c r="R57" s="27"/>
       <c r="S57" s="42"/>
     </row>
-    <row r="58" spans="1:19" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
         <v>48</v>
       </c>
@@ -12237,7 +12244,7 @@
       <c r="R58" s="43"/>
       <c r="S58" s="44"/>
     </row>
-    <row r="59" spans="1:19" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>330</v>
       </c>
@@ -12260,7 +12267,7 @@
       <c r="R59" s="43"/>
       <c r="S59" s="44"/>
     </row>
-    <row r="60" spans="1:19" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>49</v>
       </c>
@@ -12283,7 +12290,7 @@
       <c r="R60" s="43"/>
       <c r="S60" s="44"/>
     </row>
-    <row r="61" spans="1:19" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="51" t="s">
         <v>15</v>
       </c>
@@ -12308,7 +12315,7 @@
       <c r="R61" s="51"/>
       <c r="S61" s="51"/>
     </row>
-    <row r="62" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="73" t="s">
         <v>275</v>
       </c>
@@ -12317,7 +12324,7 @@
       </c>
       <c r="C62" s="73"/>
     </row>
-    <row r="63" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="73" t="s">
         <v>277</v>
       </c>
@@ -12326,7 +12333,7 @@
       </c>
       <c r="C63" s="73"/>
     </row>
-    <row r="64" spans="1:19" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="73" t="s">
         <v>279</v>
       </c>
@@ -12335,26 +12342,26 @@
       </c>
       <c r="C64" s="73"/>
     </row>
-    <row r="65" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="73"/>
       <c r="B65" s="73"/>
       <c r="C65" s="73"/>
     </row>
-    <row r="66" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="73"/>
       <c r="B66" s="73"/>
       <c r="C66" s="73"/>
     </row>
-    <row r="67" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="73"/>
       <c r="B67" s="73"/>
       <c r="C67" s="73"/>
     </row>
-    <row r="68" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="78"/>
     </row>
-    <row r="69" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="78"/>
     </row>
@@ -12377,28 +12384,28 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="83.7265625" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="43.1796875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="21" customWidth="1"/>
-    <col min="4" max="7" width="17.7265625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="43.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="21" customWidth="1"/>
+    <col min="4" max="7" width="17.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" style="21" customWidth="1"/>
     <col min="15" max="18" width="20" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="83.7265625" style="21"/>
+    <col min="19" max="16384" width="83.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="62" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="62" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="38" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="38" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>320</v>
       </c>
@@ -12407,21 +12414,21 @@
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
     </row>
-    <row r="3" spans="1:16" s="40" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:16" s="40" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -12439,7 +12446,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
     </row>
-    <row r="6" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>32</v>
       </c>
@@ -12459,7 +12466,7 @@
       <c r="O6" s="42"/>
       <c r="P6" s="42"/>
     </row>
-    <row r="7" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>47</v>
       </c>
@@ -12479,7 +12486,7 @@
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
     </row>
-    <row r="8" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>45</v>
       </c>
@@ -12498,66 +12505,66 @@
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
     </row>
-    <row r="9" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="25"/>
     </row>
-    <row r="10" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
         <v>303</v>
       </c>
       <c r="D13" s="66"/>
     </row>
-    <row r="14" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="s">
         <v>303</v>
       </c>
       <c r="D14" s="66"/>
     </row>
-    <row r="15" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
         <v>303</v>
       </c>
       <c r="D15" s="66"/>
     </row>
-    <row r="16" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
     </row>
-    <row r="18" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
     </row>
-    <row r="19" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67"/>
     </row>
-    <row r="20" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
     </row>
-    <row r="21" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
     </row>
-    <row r="22" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -12575,7 +12582,7 @@
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
     </row>
-    <row r="23" spans="1:18" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>1</v>
       </c>
@@ -12595,7 +12602,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="42"/>
     </row>
-    <row r="24" spans="1:18" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>44</v>
       </c>
@@ -12615,7 +12622,7 @@
       <c r="O24" s="43"/>
       <c r="P24" s="44"/>
     </row>
-    <row r="25" spans="1:18" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>326</v>
       </c>
@@ -12635,7 +12642,7 @@
       <c r="O25" s="43"/>
       <c r="P25" s="44"/>
     </row>
-    <row r="26" spans="1:18" s="68" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>328</v>
       </c>
@@ -12655,7 +12662,7 @@
       <c r="O26" s="45"/>
       <c r="P26" s="46"/>
     </row>
-    <row r="27" spans="1:18" s="68" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" s="68" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>329</v>
       </c>
@@ -12675,7 +12682,7 @@
       <c r="O27" s="45"/>
       <c r="P27" s="46"/>
     </row>
-    <row r="28" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
         <v>42</v>
       </c>
@@ -12731,7 +12738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="72"/>
       <c r="B29" s="49"/>
       <c r="C29" s="73"/>
@@ -12749,7 +12756,7 @@
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
     </row>
-    <row r="30" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="72"/>
       <c r="B30" s="49"/>
       <c r="C30" s="73"/>
@@ -12767,7 +12774,7 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
     </row>
-    <row r="31" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="49"/>
       <c r="C31" s="73"/>
@@ -12785,7 +12792,7 @@
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
     </row>
-    <row r="32" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="72"/>
       <c r="B32" s="49"/>
       <c r="C32" s="73"/>
@@ -12803,7 +12810,7 @@
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
     </row>
-    <row r="33" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="72"/>
       <c r="B33" s="49"/>
       <c r="C33" s="73"/>
@@ -12821,7 +12828,7 @@
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
     </row>
-    <row r="34" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -12839,7 +12846,7 @@
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
     </row>
-    <row r="35" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>43</v>
       </c>
@@ -12859,7 +12866,7 @@
       <c r="O35" s="27"/>
       <c r="P35" s="42"/>
     </row>
-    <row r="36" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>46</v>
       </c>
@@ -12879,7 +12886,7 @@
       <c r="O36" s="43"/>
       <c r="P36" s="44"/>
     </row>
-    <row r="37" spans="1:16" s="75" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" s="75" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>322</v>
       </c>
@@ -12899,7 +12906,7 @@
       <c r="O37" s="47"/>
       <c r="P37" s="48"/>
     </row>
-    <row r="38" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
         <v>323</v>
       </c>
@@ -12919,7 +12926,7 @@
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
     </row>
-    <row r="39" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
         <v>324</v>
       </c>
@@ -12939,7 +12946,7 @@
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
     </row>
-    <row r="40" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
         <v>7</v>
       </c>
@@ -12959,7 +12966,7 @@
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
     </row>
-    <row r="41" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="s">
         <v>8</v>
       </c>
@@ -12979,7 +12986,7 @@
       <c r="O41" s="29"/>
       <c r="P41" s="29"/>
     </row>
-    <row r="42" spans="1:16" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="s">
         <v>9</v>
       </c>
@@ -12999,7 +13006,7 @@
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
     </row>
-    <row r="43" spans="1:16" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="65"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -13017,7 +13024,7 @@
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
     </row>
-    <row r="44" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="65" t="s">
         <v>10</v>
       </c>
@@ -13037,7 +13044,7 @@
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
     </row>
-    <row r="45" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="65" t="s">
         <v>10</v>
       </c>
@@ -13057,7 +13064,7 @@
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
     </row>
-    <row r="46" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="65" t="s">
         <v>10</v>
       </c>
@@ -13077,7 +13084,7 @@
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
     </row>
-    <row r="47" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="65" t="s">
         <v>10</v>
       </c>
@@ -13097,7 +13104,7 @@
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
     </row>
-    <row r="48" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="65" t="s">
         <v>10</v>
       </c>
@@ -13117,7 +13124,7 @@
       <c r="O48" s="29"/>
       <c r="P48" s="29"/>
     </row>
-    <row r="49" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="65" t="s">
         <v>341</v>
       </c>
@@ -13137,7 +13144,7 @@
       <c r="O49" s="49"/>
       <c r="P49" s="49"/>
     </row>
-    <row r="50" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="65" t="s">
         <v>11</v>
       </c>
@@ -13157,7 +13164,7 @@
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
     </row>
-    <row r="51" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="65" t="s">
         <v>11</v>
       </c>
@@ -13177,7 +13184,7 @@
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
     </row>
-    <row r="52" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="50"/>
       <c r="B52" s="50"/>
       <c r="C52" s="50"/>
@@ -13195,7 +13202,7 @@
       <c r="O52" s="50"/>
       <c r="P52" s="50"/>
     </row>
-    <row r="53" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
         <v>14</v>
       </c>
@@ -13215,7 +13222,7 @@
       <c r="O53" s="27"/>
       <c r="P53" s="42"/>
     </row>
-    <row r="54" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
         <v>48</v>
       </c>
@@ -13235,7 +13242,7 @@
       <c r="O54" s="43"/>
       <c r="P54" s="44"/>
     </row>
-    <row r="55" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>330</v>
       </c>
@@ -13255,7 +13262,7 @@
       <c r="O55" s="43"/>
       <c r="P55" s="44"/>
     </row>
-    <row r="56" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
         <v>49</v>
       </c>
@@ -13275,7 +13282,7 @@
       <c r="O56" s="43"/>
       <c r="P56" s="44"/>
     </row>
-    <row r="57" spans="1:16" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="51" t="s">
         <v>15</v>
       </c>
@@ -13297,7 +13304,7 @@
       <c r="O57" s="51"/>
       <c r="P57" s="51"/>
     </row>
-    <row r="58" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>562</v>
       </c>
@@ -13305,7 +13312,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>560</v>
       </c>
@@ -13313,7 +13320,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>558</v>
       </c>
@@ -13321,7 +13328,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>556</v>
       </c>
@@ -13329,7 +13336,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>554</v>
       </c>
@@ -13337,7 +13344,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>552</v>
       </c>
@@ -13345,7 +13352,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>550</v>
       </c>
@@ -13353,7 +13360,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>548</v>
       </c>
@@ -13361,7 +13368,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>546</v>
       </c>
@@ -13369,7 +13376,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>544</v>
       </c>
@@ -13377,7 +13384,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>542</v>
       </c>
@@ -13385,7 +13392,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>540</v>
       </c>
@@ -13393,7 +13400,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>538</v>
       </c>
@@ -13401,7 +13408,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>536</v>
       </c>
@@ -13409,7 +13416,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>534</v>
       </c>
@@ -13417,7 +13424,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>532</v>
       </c>
@@ -13425,7 +13432,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>530</v>
       </c>
@@ -13433,7 +13440,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>528</v>
       </c>
@@ -13441,7 +13448,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>526</v>
       </c>
@@ -13449,7 +13456,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>524</v>
       </c>
@@ -13457,7 +13464,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>522</v>
       </c>
@@ -13465,7 +13472,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>520</v>
       </c>
@@ -13473,7 +13480,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>518</v>
       </c>
@@ -13481,7 +13488,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>516</v>
       </c>
@@ -13489,7 +13496,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>514</v>
       </c>
@@ -13497,7 +13504,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>512</v>
       </c>
@@ -13505,7 +13512,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>510</v>
       </c>
@@ -13513,7 +13520,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>508</v>
       </c>
@@ -13521,7 +13528,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>506</v>
       </c>
@@ -13529,7 +13536,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>504</v>
       </c>
@@ -13537,7 +13544,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>502</v>
       </c>
@@ -13545,7 +13552,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>500</v>
       </c>
@@ -13553,7 +13560,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>498</v>
       </c>
@@ -13561,7 +13568,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>496</v>
       </c>
@@ -13569,7 +13576,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>494</v>
       </c>
@@ -13577,7 +13584,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>492</v>
       </c>
@@ -13585,7 +13592,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>490</v>
       </c>
@@ -13593,7 +13600,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>488</v>
       </c>
@@ -13601,7 +13608,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>486</v>
       </c>
@@ -13609,7 +13616,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>484</v>
       </c>
@@ -13617,7 +13624,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>482</v>
       </c>
@@ -13625,7 +13632,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>480</v>
       </c>
@@ -13633,7 +13640,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>478</v>
       </c>
@@ -13641,7 +13648,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>476</v>
       </c>
@@ -13649,7 +13656,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>474</v>
       </c>
@@ -13657,7 +13664,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>472</v>
       </c>
@@ -13665,7 +13672,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>470</v>
       </c>
@@ -13673,7 +13680,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>468</v>
       </c>
@@ -13701,39 +13708,39 @@
       <selection activeCell="B9" sqref="B9:B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="30.7265625" style="22" customWidth="1"/>
-    <col min="3" max="5" width="9.1796875" style="22"/>
-    <col min="6" max="6" width="28.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="22"/>
+    <col min="1" max="2" width="30.7109375" style="22" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="28.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="53" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="53" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="60"/>
     </row>
-    <row r="7" spans="1:7" s="57" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
         <v>316</v>
       </c>
@@ -13741,7 +13748,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="59" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="s">
         <v>317</v>
       </c>
@@ -13755,7 +13762,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>562</v>
       </c>
@@ -13763,7 +13770,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>561</v>
       </c>
@@ -13771,7 +13778,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>560</v>
       </c>
@@ -13779,7 +13786,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>559</v>
       </c>
@@ -13787,7 +13794,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>558</v>
       </c>
@@ -13795,7 +13802,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>557</v>
       </c>
@@ -13803,7 +13810,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>556</v>
       </c>
@@ -13811,7 +13818,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>555</v>
       </c>
@@ -13819,7 +13826,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>554</v>
       </c>
@@ -13827,7 +13834,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>553</v>
       </c>
@@ -13835,7 +13842,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>552</v>
       </c>
@@ -13843,7 +13850,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>551</v>
       </c>
@@ -13851,7 +13858,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>550</v>
       </c>
@@ -13859,7 +13866,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>549</v>
       </c>
@@ -13867,7 +13874,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -13875,7 +13882,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>547</v>
       </c>
@@ -13883,7 +13890,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>546</v>
       </c>
@@ -13891,7 +13898,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>545</v>
       </c>
@@ -13899,7 +13906,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>544</v>
       </c>
@@ -13907,7 +13914,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>543</v>
       </c>
@@ -13915,7 +13922,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>542</v>
       </c>
@@ -13923,7 +13930,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>541</v>
       </c>
@@ -13931,7 +13938,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>540</v>
       </c>
@@ -13939,7 +13946,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>539</v>
       </c>
@@ -13947,7 +13954,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>538</v>
       </c>
@@ -13955,7 +13962,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>537</v>
       </c>
@@ -13963,7 +13970,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>536</v>
       </c>
@@ -13971,7 +13978,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>535</v>
       </c>
@@ -13979,7 +13986,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>534</v>
       </c>
@@ -13987,7 +13994,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>533</v>
       </c>
@@ -13995,7 +14002,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>532</v>
       </c>
@@ -14003,7 +14010,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>531</v>
       </c>
@@ -14011,7 +14018,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>530</v>
       </c>
@@ -14019,7 +14026,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>529</v>
       </c>
@@ -14027,7 +14034,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>528</v>
       </c>
@@ -14035,7 +14042,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>527</v>
       </c>
@@ -14043,7 +14050,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>526</v>
       </c>
@@ -14051,7 +14058,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>525</v>
       </c>
@@ -14059,7 +14066,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>524</v>
       </c>
@@ -14067,7 +14074,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>523</v>
       </c>
@@ -14075,7 +14082,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>522</v>
       </c>
@@ -14083,7 +14090,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>521</v>
       </c>
@@ -14091,7 +14098,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>520</v>
       </c>
@@ -14099,7 +14106,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>519</v>
       </c>
@@ -14107,7 +14114,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>518</v>
       </c>
@@ -14115,7 +14122,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>517</v>
       </c>
@@ -14123,7 +14130,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>516</v>
       </c>
@@ -14131,7 +14138,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>515</v>
       </c>
@@ -14139,242 +14146,242 @@
         <v>414</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>467</v>
       </c>
@@ -14393,30 +14400,30 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="83.7265625" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.7265625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="43.1796875" style="21" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7265625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.54296875" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.7265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="21" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="25" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="83.7265625" style="21"/>
+    <col min="19" max="16384" width="83.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="62" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="62" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="40" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>320</v>
       </c>
@@ -14425,7 +14432,7 @@
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
     </row>
-    <row r="3" spans="1:16" s="84" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="84" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="82" t="s">
         <v>331</v>
       </c>
@@ -14434,14 +14441,14 @@
       <c r="D3" s="83"/>
       <c r="E3" s="83"/>
     </row>
-    <row r="4" spans="1:16" s="40" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -14459,7 +14466,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
     </row>
-    <row r="6" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>32</v>
       </c>
@@ -14479,7 +14486,7 @@
       <c r="O6" s="42"/>
       <c r="P6" s="42"/>
     </row>
-    <row r="7" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>47</v>
       </c>
@@ -14499,7 +14506,7 @@
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
     </row>
-    <row r="8" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>45</v>
       </c>
@@ -14518,7 +14525,7 @@
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
     </row>
-    <row r="9" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
         <v>0</v>
       </c>
@@ -14526,7 +14533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>35</v>
       </c>
@@ -14534,7 +14541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>35</v>
       </c>
@@ -14542,7 +14549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
         <v>33</v>
       </c>
@@ -14550,7 +14557,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
         <v>303</v>
       </c>
@@ -14558,7 +14565,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="s">
         <v>303</v>
       </c>
@@ -14567,24 +14574,24 @@
       </c>
       <c r="D14" s="66"/>
     </row>
-    <row r="15" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
     </row>
-    <row r="17" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
     </row>
-    <row r="18" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
     </row>
-    <row r="19" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67"/>
     </row>
-    <row r="20" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -14602,7 +14609,7 @@
       <c r="O20" s="26"/>
       <c r="P20" s="26"/>
     </row>
-    <row r="21" spans="1:18" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>1</v>
       </c>
@@ -14622,7 +14629,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="42"/>
     </row>
-    <row r="22" spans="1:18" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>44</v>
       </c>
@@ -14642,7 +14649,7 @@
       <c r="O22" s="43"/>
       <c r="P22" s="44"/>
     </row>
-    <row r="23" spans="1:18" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>326</v>
       </c>
@@ -14662,7 +14669,7 @@
       <c r="O23" s="43"/>
       <c r="P23" s="44"/>
     </row>
-    <row r="24" spans="1:18" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>328</v>
       </c>
@@ -14682,7 +14689,7 @@
       <c r="O24" s="43"/>
       <c r="P24" s="44"/>
     </row>
-    <row r="25" spans="1:18" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>329</v>
       </c>
@@ -14702,7 +14709,7 @@
       <c r="O25" s="43"/>
       <c r="P25" s="44"/>
     </row>
-    <row r="26" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
         <v>42</v>
       </c>
@@ -14758,7 +14765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="73" t="s">
         <v>53</v>
       </c>
@@ -14802,7 +14809,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="73" t="s">
         <v>54</v>
       </c>
@@ -14846,7 +14853,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="73" t="s">
         <v>55</v>
       </c>
@@ -14890,7 +14897,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="73" t="s">
         <v>56</v>
       </c>
@@ -14934,7 +14941,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="73" t="s">
         <v>57</v>
       </c>
@@ -14978,7 +14985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="73" t="s">
         <v>58</v>
       </c>
@@ -15022,7 +15029,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="73" t="s">
         <v>88</v>
       </c>
@@ -15066,7 +15073,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="73" t="s">
         <v>92</v>
       </c>
@@ -15110,7 +15117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="72"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -15128,7 +15135,7 @@
       <c r="O35" s="49"/>
       <c r="P35" s="49"/>
     </row>
-    <row r="36" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -15146,7 +15153,7 @@
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
     </row>
-    <row r="37" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>43</v>
       </c>
@@ -15166,7 +15173,7 @@
       <c r="O37" s="27"/>
       <c r="P37" s="42"/>
     </row>
-    <row r="38" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>46</v>
       </c>
@@ -15186,7 +15193,7 @@
       <c r="O38" s="43"/>
       <c r="P38" s="44"/>
     </row>
-    <row r="39" spans="1:16" s="87" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" s="87" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="85" t="s">
         <v>322</v>
       </c>
@@ -15206,7 +15213,7 @@
       <c r="O39" s="85"/>
       <c r="P39" s="86"/>
     </row>
-    <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="65" t="s">
         <v>323</v>
       </c>
@@ -15228,7 +15235,7 @@
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
     </row>
-    <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="65" t="s">
         <v>324</v>
       </c>
@@ -15250,7 +15257,7 @@
       <c r="O41" s="29"/>
       <c r="P41" s="29"/>
     </row>
-    <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="65" t="s">
         <v>324</v>
       </c>
@@ -15272,7 +15279,7 @@
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
     </row>
-    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="65" t="s">
         <v>7</v>
       </c>
@@ -15294,7 +15301,7 @@
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
     </row>
-    <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="65" t="s">
         <v>8</v>
       </c>
@@ -15316,7 +15323,7 @@
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
     </row>
-    <row r="45" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="65" t="s">
         <v>9</v>
       </c>
@@ -15338,7 +15345,7 @@
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
     </row>
-    <row r="46" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="65"/>
       <c r="B46" s="78"/>
       <c r="C46" s="29"/>
@@ -15356,7 +15363,7 @@
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
     </row>
-    <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="65" t="s">
         <v>10</v>
       </c>
@@ -15378,7 +15385,7 @@
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
     </row>
-    <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="65" t="s">
         <v>10</v>
       </c>
@@ -15400,7 +15407,7 @@
       <c r="O48" s="29"/>
       <c r="P48" s="29"/>
     </row>
-    <row r="49" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="65" t="s">
         <v>10</v>
       </c>
@@ -15422,7 +15429,7 @@
       <c r="O49" s="29"/>
       <c r="P49" s="29"/>
     </row>
-    <row r="50" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="65" t="s">
         <v>10</v>
       </c>
@@ -15444,7 +15451,7 @@
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="65" t="s">
         <v>10</v>
       </c>
@@ -15464,7 +15471,7 @@
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="65" t="s">
         <v>341</v>
       </c>
@@ -15486,7 +15493,7 @@
       <c r="O52" s="49"/>
       <c r="P52" s="49"/>
     </row>
-    <row r="53" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="65" t="s">
         <v>11</v>
       </c>
@@ -15508,7 +15515,7 @@
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
     </row>
-    <row r="54" spans="1:16" s="88" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" s="88" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="67"/>
       <c r="B54" s="30"/>
       <c r="C54" s="49"/>
@@ -15526,7 +15533,7 @@
       <c r="O54" s="49"/>
       <c r="P54" s="49"/>
     </row>
-    <row r="55" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="50"/>
       <c r="B55" s="50"/>
       <c r="C55" s="50"/>
@@ -15544,7 +15551,7 @@
       <c r="O55" s="50"/>
       <c r="P55" s="50"/>
     </row>
-    <row r="56" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
         <v>14</v>
       </c>
@@ -15564,7 +15571,7 @@
       <c r="O56" s="27"/>
       <c r="P56" s="42"/>
     </row>
-    <row r="57" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
         <v>48</v>
       </c>
@@ -15584,7 +15591,7 @@
       <c r="O57" s="43"/>
       <c r="P57" s="44"/>
     </row>
-    <row r="58" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
         <v>330</v>
       </c>
@@ -15604,7 +15611,7 @@
       <c r="O58" s="43"/>
       <c r="P58" s="44"/>
     </row>
-    <row r="59" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>49</v>
       </c>
@@ -15624,7 +15631,7 @@
       <c r="O59" s="43"/>
       <c r="P59" s="44"/>
     </row>
-    <row r="60" spans="1:16" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="51" t="s">
         <v>15</v>
       </c>
@@ -15646,7 +15653,7 @@
       <c r="O60" s="51"/>
       <c r="P60" s="51"/>
     </row>
-    <row r="61" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="78" t="s">
         <v>70</v>
       </c>
@@ -15654,7 +15661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="78" t="s">
         <v>74</v>
       </c>
@@ -15662,7 +15669,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78" t="s">
         <v>77</v>
       </c>
@@ -15670,7 +15677,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78" t="s">
         <v>80</v>
       </c>
@@ -15678,7 +15685,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="78" t="s">
         <v>83</v>
       </c>
@@ -15686,7 +15693,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="78" t="s">
         <v>86</v>
       </c>
@@ -15694,7 +15701,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78" t="s">
         <v>90</v>
       </c>
@@ -15702,7 +15709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78" t="s">
         <v>94</v>
       </c>
@@ -15731,26 +15738,26 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
-    <col min="7" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" customWidth="1"/>
-    <col min="11" max="11" width="24.26953125" customWidth="1"/>
-    <col min="12" max="12" width="21.81640625" customWidth="1"/>
-    <col min="13" max="13" width="16.7265625" customWidth="1"/>
-    <col min="14" max="14" width="25.7265625" customWidth="1"/>
-    <col min="15" max="15" width="26.54296875" customWidth="1"/>
-    <col min="16" max="16" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>42</v>
       </c>
@@ -15798,7 +15805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>359</v>
       </c>
@@ -15845,7 +15852,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>360</v>
       </c>
@@ -15889,7 +15896,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>361</v>
       </c>
@@ -15933,7 +15940,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>362</v>
       </c>
@@ -15977,7 +15984,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>363</v>
       </c>
@@ -16021,7 +16028,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>364</v>
       </c>
@@ -16065,7 +16072,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>365</v>
       </c>
@@ -16109,7 +16116,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>366</v>
       </c>
@@ -16153,7 +16160,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>367</v>
       </c>
@@ -16197,7 +16204,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>368</v>
       </c>
@@ -16241,7 +16248,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>369</v>
       </c>
@@ -16285,7 +16292,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>370</v>
       </c>
@@ -16329,7 +16336,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -16373,7 +16380,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -16417,7 +16424,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -16461,7 +16468,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>374</v>
       </c>
@@ -16505,7 +16512,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>375</v>
       </c>
@@ -16549,7 +16556,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>376</v>
       </c>
@@ -16593,7 +16600,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>377</v>
       </c>
@@ -16637,7 +16644,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>378</v>
       </c>
@@ -16681,7 +16688,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>379</v>
       </c>
@@ -16725,7 +16732,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>380</v>
       </c>
@@ -16769,7 +16776,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>381</v>
       </c>
@@ -16813,7 +16820,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>382</v>
       </c>
@@ -16857,7 +16864,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>383</v>
       </c>
@@ -16901,7 +16908,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>384</v>
       </c>
@@ -16945,7 +16952,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>385</v>
       </c>
@@ -16989,7 +16996,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>386</v>
       </c>
@@ -17033,7 +17040,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>387</v>
       </c>
@@ -17077,7 +17084,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>388</v>
       </c>
@@ -17121,7 +17128,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>389</v>
       </c>
@@ -17165,7 +17172,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>390</v>
       </c>
@@ -17209,7 +17216,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>391</v>
       </c>
@@ -17253,7 +17260,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>392</v>
       </c>
@@ -17297,7 +17304,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>393</v>
       </c>
@@ -17341,7 +17348,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>394</v>
       </c>
@@ -17385,7 +17392,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>395</v>
       </c>
@@ -17429,7 +17436,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>396</v>
       </c>
@@ -17473,7 +17480,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>397</v>
       </c>
@@ -17517,7 +17524,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>398</v>
       </c>
@@ -17561,7 +17568,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>399</v>
       </c>
@@ -17605,7 +17612,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>400</v>
       </c>
@@ -17649,7 +17656,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>401</v>
       </c>
@@ -17693,7 +17700,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>402</v>
       </c>
@@ -17737,7 +17744,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>403</v>
       </c>
@@ -17781,7 +17788,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>404</v>
       </c>
@@ -17825,7 +17832,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>405</v>
       </c>
@@ -17869,7 +17876,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>406</v>
       </c>
@@ -17924,15 +17931,15 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.1796875" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>43</v>
       </c>
@@ -17952,7 +17959,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="42"/>
     </row>
-    <row r="2" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>46</v>
       </c>
@@ -17972,7 +17979,7 @@
       <c r="O2" s="43"/>
       <c r="P2" s="44"/>
     </row>
-    <row r="3" spans="1:16" s="87" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="87" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
         <v>322</v>
       </c>
@@ -17992,7 +17999,7 @@
       <c r="O3" s="85"/>
       <c r="P3" s="86"/>
     </row>
-    <row r="4" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="s">
         <v>323</v>
       </c>
@@ -18014,7 +18021,7 @@
       <c r="O4" s="29"/>
       <c r="P4" s="29"/>
     </row>
-    <row r="5" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
         <v>324</v>
       </c>
@@ -18036,7 +18043,7 @@
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
     </row>
-    <row r="6" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="65" t="s">
         <v>324</v>
       </c>
@@ -18058,7 +18065,7 @@
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
     </row>
-    <row r="7" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
@@ -18080,7 +18087,7 @@
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
     </row>
-    <row r="8" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
         <v>8</v>
       </c>
@@ -18102,7 +18109,7 @@
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
     </row>
-    <row r="9" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
         <v>8</v>
       </c>
@@ -18124,12 +18131,12 @@
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -18146,7 +18153,7 @@
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="65"/>
       <c r="B11" s="78"/>
       <c r="C11" s="29"/>
@@ -18164,12 +18171,12 @@
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -18186,12 +18193,12 @@
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -18208,12 +18215,12 @@
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -18230,7 +18237,7 @@
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
         <v>10</v>
       </c>
@@ -18250,7 +18257,7 @@
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
         <v>10</v>
       </c>
@@ -18270,12 +18277,12 @@
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="65" t="s">
         <v>341</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
@@ -18292,12 +18299,12 @@
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
     </row>
-    <row r="18" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>628</v>
+      <c r="B18" s="101" t="s">
+        <v>633</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -18329,12 +18336,12 @@
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>32</v>
       </c>
@@ -18354,7 +18361,7 @@
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
     </row>
-    <row r="2" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>47</v>
       </c>
@@ -18374,7 +18381,7 @@
       <c r="O2" s="44"/>
       <c r="P2" s="44"/>
     </row>
-    <row r="3" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>45</v>
       </c>
@@ -18393,7 +18400,7 @@
       <c r="O3" s="44"/>
       <c r="P3" s="44"/>
     </row>
-    <row r="4" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="s">
         <v>0</v>
       </c>
@@ -18401,7 +18408,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>35</v>
       </c>
@@ -18409,12 +18416,12 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>33</v>
       </c>
@@ -18422,7 +18429,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
         <v>303</v>
       </c>
@@ -18430,7 +18437,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
         <v>303</v>
       </c>
@@ -18439,7 +18446,7 @@
       </c>
       <c r="D9" s="66"/>
     </row>
-    <row r="10" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="s">
         <v>303</v>
       </c>
@@ -18448,7 +18455,7 @@
       </c>
       <c r="D10" s="66"/>
     </row>
-    <row r="11" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="65" t="s">
         <v>303</v>
       </c>
@@ -18457,7 +18464,7 @@
       </c>
       <c r="D11" s="66"/>
     </row>
-    <row r="12" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>303</v>
       </c>
@@ -18466,7 +18473,7 @@
       </c>
       <c r="D12" s="66"/>
     </row>
-    <row r="13" spans="1:16" s="21" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
         <v>321</v>
       </c>
@@ -18486,33 +18493,33 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="83.7265625" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.7265625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="43.1796875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="21" customWidth="1"/>
     <col min="6" max="6" width="28" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="24.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="58" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61.7265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="61.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="25" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="83.7265625" style="21"/>
+    <col min="19" max="16384" width="83.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="62" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="62" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="38" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="38" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>320</v>
       </c>
@@ -18521,14 +18528,14 @@
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
     </row>
-    <row r="3" spans="1:16" s="40" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -18546,7 +18553,7 @@
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
     </row>
-    <row r="5" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>32</v>
       </c>
@@ -18566,7 +18573,7 @@
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
     </row>
-    <row r="6" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>47</v>
       </c>
@@ -18586,7 +18593,7 @@
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
     </row>
-    <row r="7" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>45</v>
       </c>
@@ -18605,7 +18612,7 @@
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
     </row>
-    <row r="8" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
@@ -18613,7 +18620,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
         <v>35</v>
       </c>
@@ -18621,7 +18628,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="s">
         <v>35</v>
       </c>
@@ -18629,7 +18636,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="65" t="s">
         <v>33</v>
       </c>
@@ -18637,7 +18644,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>303</v>
       </c>
@@ -18645,7 +18652,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
         <v>303</v>
       </c>
@@ -18654,7 +18661,7 @@
       </c>
       <c r="D13" s="66"/>
     </row>
-    <row r="14" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="s">
         <v>303</v>
       </c>
@@ -18662,7 +18669,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="s">
         <v>303</v>
       </c>
@@ -18670,18 +18677,18 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
     </row>
-    <row r="18" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
     </row>
-    <row r="19" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -18699,7 +18706,7 @@
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
     </row>
-    <row r="20" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>1</v>
       </c>
@@ -18719,7 +18726,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="42"/>
     </row>
-    <row r="21" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>44</v>
       </c>
@@ -18739,7 +18746,7 @@
       <c r="O21" s="43"/>
       <c r="P21" s="44"/>
     </row>
-    <row r="22" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>326</v>
       </c>
@@ -18759,7 +18766,7 @@
       <c r="O22" s="43"/>
       <c r="P22" s="44"/>
     </row>
-    <row r="23" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>328</v>
       </c>
@@ -18779,7 +18786,7 @@
       <c r="O23" s="43"/>
       <c r="P23" s="44"/>
     </row>
-    <row r="24" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>329</v>
       </c>
@@ -18799,7 +18806,7 @@
       <c r="O24" s="43"/>
       <c r="P24" s="44"/>
     </row>
-    <row r="25" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>42</v>
       </c>
@@ -18849,7 +18856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="73" t="s">
         <v>123</v>
       </c>
@@ -18890,7 +18897,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="73" t="s">
         <v>133</v>
       </c>
@@ -18931,7 +18938,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="73" t="s">
         <v>139</v>
       </c>
@@ -18972,7 +18979,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="73" t="s">
         <v>145</v>
       </c>
@@ -19013,7 +19020,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="73" t="s">
         <v>151</v>
       </c>
@@ -19054,7 +19061,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="73" t="s">
         <v>157</v>
       </c>
@@ -19092,14 +19099,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="73" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="78"/>
     </row>
-    <row r="33" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -19117,7 +19124,7 @@
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
     </row>
-    <row r="34" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>43</v>
       </c>
@@ -19137,7 +19144,7 @@
       <c r="O34" s="27"/>
       <c r="P34" s="42"/>
     </row>
-    <row r="35" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>46</v>
       </c>
@@ -19157,7 +19164,7 @@
       <c r="O35" s="43"/>
       <c r="P35" s="44"/>
     </row>
-    <row r="36" spans="1:16" s="87" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" s="87" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="85" t="s">
         <v>322</v>
       </c>
@@ -19177,7 +19184,7 @@
       <c r="O36" s="85"/>
       <c r="P36" s="86"/>
     </row>
-    <row r="37" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="65" t="s">
         <v>323</v>
       </c>
@@ -19199,7 +19206,7 @@
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
     </row>
-    <row r="38" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="65" t="s">
         <v>324</v>
       </c>
@@ -19219,7 +19226,7 @@
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
     </row>
-    <row r="39" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="65" t="s">
         <v>7</v>
       </c>
@@ -19241,7 +19248,7 @@
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
     </row>
-    <row r="40" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="65" t="s">
         <v>8</v>
       </c>
@@ -19263,7 +19270,7 @@
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
     </row>
-    <row r="41" spans="1:16" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="65" t="s">
         <v>9</v>
       </c>
@@ -19285,7 +19292,7 @@
       <c r="O41" s="29"/>
       <c r="P41" s="29"/>
     </row>
-    <row r="42" spans="1:16" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="65"/>
       <c r="B42" s="73"/>
       <c r="C42" s="29"/>
@@ -19303,7 +19310,7 @@
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
     </row>
-    <row r="43" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="65" t="s">
         <v>10</v>
       </c>
@@ -19325,7 +19332,7 @@
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
     </row>
-    <row r="44" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="65" t="s">
         <v>10</v>
       </c>
@@ -19347,7 +19354,7 @@
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
     </row>
-    <row r="45" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="65" t="s">
         <v>10</v>
       </c>
@@ -19369,7 +19376,7 @@
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
     </row>
-    <row r="46" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="65" t="s">
         <v>10</v>
       </c>
@@ -19391,7 +19398,7 @@
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
     </row>
-    <row r="47" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="65" t="s">
         <v>10</v>
       </c>
@@ -19413,7 +19420,7 @@
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
     </row>
-    <row r="48" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="65" t="s">
         <v>10</v>
       </c>
@@ -19435,7 +19442,7 @@
       <c r="O48" s="49"/>
       <c r="P48" s="49"/>
     </row>
-    <row r="49" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="65" t="s">
         <v>341</v>
       </c>
@@ -19457,7 +19464,7 @@
       <c r="O49" s="29"/>
       <c r="P49" s="29"/>
     </row>
-    <row r="50" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="65" t="s">
         <v>11</v>
       </c>
@@ -19479,7 +19486,7 @@
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
     </row>
-    <row r="51" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50"/>
       <c r="B51" s="50"/>
       <c r="C51" s="50"/>
@@ -19497,7 +19504,7 @@
       <c r="O51" s="50"/>
       <c r="P51" s="50"/>
     </row>
-    <row r="52" spans="1:16" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
         <v>14</v>
       </c>
@@ -19517,7 +19524,7 @@
       <c r="O52" s="27"/>
       <c r="P52" s="42"/>
     </row>
-    <row r="53" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
         <v>48</v>
       </c>
@@ -19537,7 +19544,7 @@
       <c r="O53" s="43"/>
       <c r="P53" s="44"/>
     </row>
-    <row r="54" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
         <v>330</v>
       </c>
@@ -19557,7 +19564,7 @@
       <c r="O54" s="43"/>
       <c r="P54" s="44"/>
     </row>
-    <row r="55" spans="1:16" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>49</v>
       </c>
@@ -19577,7 +19584,7 @@
       <c r="O55" s="43"/>
       <c r="P55" s="44"/>
     </row>
-    <row r="56" spans="1:16" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="51" t="s">
         <v>15</v>
       </c>
@@ -19599,35 +19606,35 @@
       <c r="O56" s="51"/>
       <c r="P56" s="51"/>
     </row>
-    <row r="57" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
       <c r="B57" s="78"/>
     </row>
-    <row r="58" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="78"/>
       <c r="B58" s="78"/>
     </row>
-    <row r="59" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="78"/>
       <c r="B59" s="78"/>
     </row>
-    <row r="60" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
       <c r="B60" s="78"/>
     </row>
-    <row r="61" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
       <c r="B61" s="78"/>
     </row>
-    <row r="62" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
       <c r="B62" s="78"/>
     </row>
-    <row r="63" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
       <c r="B63" s="78"/>
     </row>
-    <row r="64" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
       <c r="B64" s="78"/>
     </row>
@@ -19647,38 +19654,38 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="83.7265625" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.7265625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="48.26953125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="20.7265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.54296875" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.453125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="45.1796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="45.1796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="45.1796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="83.7265625" style="21"/>
+    <col min="8" max="8" width="13.85546875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="45.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="45.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="45.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="83.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="62" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="62" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="38" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="38" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>320</v>
       </c>
@@ -19687,14 +19694,14 @@
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
     </row>
-    <row r="3" spans="1:15" s="40" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -19711,7 +19718,7 @@
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
     </row>
-    <row r="5" spans="1:15" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>32</v>
       </c>
@@ -19730,7 +19737,7 @@
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
     </row>
-    <row r="6" spans="1:15" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>47</v>
       </c>
@@ -19749,7 +19756,7 @@
       <c r="N6" s="44"/>
       <c r="O6" s="44"/>
     </row>
-    <row r="7" spans="1:15" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>45</v>
       </c>
@@ -19767,7 +19774,7 @@
       <c r="N7" s="44"/>
       <c r="O7" s="44"/>
     </row>
-    <row r="8" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
         <v>0</v>
       </c>
@@ -19775,7 +19782,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
         <v>35</v>
       </c>
@@ -19783,7 +19790,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="s">
         <v>33</v>
       </c>
@@ -19791,7 +19798,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="65" t="s">
         <v>303</v>
       </c>
@@ -19799,7 +19806,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>303</v>
       </c>
@@ -19807,18 +19814,18 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
     </row>
-    <row r="15" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67"/>
     </row>
-    <row r="16" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -19835,7 +19842,7 @@
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
     </row>
-    <row r="17" spans="1:26" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>1</v>
       </c>
@@ -19854,7 +19861,7 @@
       <c r="N17" s="27"/>
       <c r="O17" s="42"/>
     </row>
-    <row r="18" spans="1:26" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>44</v>
       </c>
@@ -19873,7 +19880,7 @@
       <c r="N18" s="43"/>
       <c r="O18" s="44"/>
     </row>
-    <row r="19" spans="1:26" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>326</v>
       </c>
@@ -19892,7 +19899,7 @@
       <c r="N19" s="43"/>
       <c r="O19" s="44"/>
     </row>
-    <row r="20" spans="1:26" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>328</v>
       </c>
@@ -19912,7 +19919,7 @@
       <c r="O20" s="43"/>
       <c r="P20" s="44"/>
     </row>
-    <row r="21" spans="1:26" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>329</v>
       </c>
@@ -19932,7 +19939,7 @@
       <c r="O21" s="43"/>
       <c r="P21" s="44"/>
     </row>
-    <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
         <v>42</v>
       </c>
@@ -20012,7 +20019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="73" t="s">
         <v>53</v>
       </c>
@@ -20092,7 +20099,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="73" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="73" t="s">
         <v>54</v>
       </c>
@@ -20172,7 +20179,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="73" t="s">
         <v>55</v>
       </c>
@@ -20252,7 +20259,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="73" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="73" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="73" t="s">
         <v>56</v>
       </c>
@@ -20332,7 +20339,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="72"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -20349,7 +20356,7 @@
       <c r="N27" s="49"/>
       <c r="O27" s="49"/>
     </row>
-    <row r="28" spans="1:26" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -20366,7 +20373,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
     </row>
-    <row r="29" spans="1:26" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
         <v>43</v>
       </c>
@@ -20385,7 +20392,7 @@
       <c r="N29" s="27"/>
       <c r="O29" s="42"/>
     </row>
-    <row r="30" spans="1:26" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>46</v>
       </c>
@@ -20404,7 +20411,7 @@
       <c r="N30" s="43"/>
       <c r="O30" s="44"/>
     </row>
-    <row r="31" spans="1:26" s="87" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" s="87" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
         <v>322</v>
       </c>
@@ -20424,7 +20431,7 @@
       <c r="O31" s="85"/>
       <c r="P31" s="86"/>
     </row>
-    <row r="32" spans="1:26" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="65" t="s">
         <v>323</v>
       </c>
@@ -20443,7 +20450,7 @@
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
     </row>
-    <row r="33" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="65" t="s">
         <v>324</v>
       </c>
@@ -20462,7 +20469,7 @@
       <c r="N33" s="29"/>
       <c r="O33" s="29"/>
     </row>
-    <row r="34" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="65" t="s">
         <v>324</v>
       </c>
@@ -20481,7 +20488,7 @@
       <c r="N34" s="29"/>
       <c r="O34" s="29"/>
     </row>
-    <row r="35" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="65" t="s">
         <v>7</v>
       </c>
@@ -20502,7 +20509,7 @@
       <c r="N35" s="29"/>
       <c r="O35" s="29"/>
     </row>
-    <row r="36" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="65" t="s">
         <v>8</v>
       </c>
@@ -20523,7 +20530,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="37" spans="1:15" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="65" t="s">
         <v>9</v>
       </c>
@@ -20544,7 +20551,7 @@
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
     </row>
-    <row r="38" spans="1:15" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="65"/>
       <c r="B38" s="73"/>
       <c r="C38" s="29"/>
@@ -20561,7 +20568,7 @@
       <c r="N38" s="29"/>
       <c r="O38" s="29"/>
     </row>
-    <row r="39" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="65" t="s">
         <v>10</v>
       </c>
@@ -20582,7 +20589,7 @@
       <c r="N39" s="29"/>
       <c r="O39" s="29"/>
     </row>
-    <row r="40" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="65" t="s">
         <v>10</v>
       </c>
@@ -20601,7 +20608,7 @@
       <c r="N40" s="29"/>
       <c r="O40" s="29"/>
     </row>
-    <row r="41" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="65" t="s">
         <v>10</v>
       </c>
@@ -20620,7 +20627,7 @@
       <c r="N41" s="29"/>
       <c r="O41" s="29"/>
     </row>
-    <row r="42" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="65" t="s">
         <v>10</v>
       </c>
@@ -20639,7 +20646,7 @@
       <c r="N42" s="29"/>
       <c r="O42" s="29"/>
     </row>
-    <row r="43" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
         <v>10</v>
       </c>
@@ -20657,7 +20664,7 @@
       <c r="N43" s="29"/>
       <c r="O43" s="29"/>
     </row>
-    <row r="44" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="65" t="s">
         <v>341</v>
       </c>
@@ -20678,7 +20685,7 @@
       <c r="N44" s="49"/>
       <c r="O44" s="49"/>
     </row>
-    <row r="45" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="65" t="s">
         <v>11</v>
       </c>
@@ -20699,7 +20706,7 @@
       <c r="N45" s="29"/>
       <c r="O45" s="29"/>
     </row>
-    <row r="46" spans="1:15" s="88" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" s="88" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="67"/>
       <c r="B46" s="30"/>
       <c r="C46" s="49"/>
@@ -20716,7 +20723,7 @@
       <c r="N46" s="49"/>
       <c r="O46" s="49"/>
     </row>
-    <row r="47" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
       <c r="C47" s="50"/>
@@ -20733,7 +20740,7 @@
       <c r="N47" s="50"/>
       <c r="O47" s="50"/>
     </row>
-    <row r="48" spans="1:15" s="63" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>14</v>
       </c>
@@ -20752,7 +20759,7 @@
       <c r="N48" s="27"/>
       <c r="O48" s="42"/>
     </row>
-    <row r="49" spans="1:15" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>48</v>
       </c>
@@ -20771,7 +20778,7 @@
       <c r="N49" s="43"/>
       <c r="O49" s="44"/>
     </row>
-    <row r="50" spans="1:15" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>330</v>
       </c>
@@ -20790,7 +20797,7 @@
       <c r="N50" s="43"/>
       <c r="O50" s="44"/>
     </row>
-    <row r="51" spans="1:15" s="64" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
         <v>49</v>
       </c>
@@ -20809,7 +20816,7 @@
       <c r="N51" s="43"/>
       <c r="O51" s="44"/>
     </row>
-    <row r="52" spans="1:15" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
         <v>15</v>
       </c>
@@ -20832,7 +20839,7 @@
       <c r="N52" s="51"/>
       <c r="O52" s="51"/>
     </row>
-    <row r="53" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="73" t="s">
         <v>186</v>
       </c>
@@ -20843,7 +20850,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="73" t="s">
         <v>189</v>
       </c>
@@ -20854,7 +20861,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="73" t="s">
         <v>192</v>
       </c>
@@ -20865,7 +20872,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="73" t="s">
         <v>195</v>
       </c>
@@ -20876,7 +20883,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="73" t="s">
         <v>202</v>
       </c>
@@ -20887,7 +20894,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="73" t="s">
         <v>205</v>
       </c>
@@ -20898,7 +20905,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="73" t="s">
         <v>208</v>
       </c>
@@ -20909,7 +20916,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="73" t="s">
         <v>211</v>
       </c>
@@ -20920,7 +20927,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="73" t="s">
         <v>217</v>
       </c>
@@ -20931,7 +20938,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="73" t="s">
         <v>220</v>
       </c>
@@ -20942,7 +20949,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="73" t="s">
         <v>223</v>
       </c>
@@ -20953,7 +20960,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="73" t="s">
         <v>226</v>
       </c>
@@ -20964,7 +20971,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="73" t="s">
         <v>232</v>
       </c>
@@ -20975,7 +20982,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="73" t="s">
         <v>235</v>
       </c>
@@ -20986,7 +20993,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="73" t="s">
         <v>238</v>
       </c>
@@ -20997,7 +21004,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="73" t="s">
         <v>241</v>
       </c>

--- a/seq_template.xlsx
+++ b/seq_template.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1380" windowWidth="23340" windowHeight="15285" tabRatio="712" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="1830" yWindow="1380" windowWidth="23340" windowHeight="15285" tabRatio="812" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1. Checklist" sheetId="12" r:id="rId1"/>
     <sheet name="2. Metadata Template" sheetId="4" r:id="rId2"/>
     <sheet name="3. MD5 Checksums" sheetId="18" r:id="rId3"/>
-    <sheet name="RNA-seq EXAMPLE" sheetId="13" r:id="rId4"/>
-    <sheet name="my_samples" sheetId="19" r:id="rId5"/>
-    <sheet name="my_protocol" sheetId="22" r:id="rId6"/>
-    <sheet name="my_study" sheetId="21" r:id="rId7"/>
+    <sheet name="my_samples" sheetId="19" r:id="rId4"/>
+    <sheet name="my_protocol" sheetId="22" r:id="rId5"/>
+    <sheet name="my_study" sheetId="21" r:id="rId6"/>
+    <sheet name="RNA-seq EXAMPLE" sheetId="13" r:id="rId7"/>
     <sheet name="ChIP-seq EXAMPLE" sheetId="14" r:id="rId8"/>
     <sheet name="scRNA-seq EXAMPLE" sheetId="15" r:id="rId9"/>
     <sheet name="CITE-seq EXAMPLE" sheetId="17" r:id="rId10"/>
@@ -927,170 +927,32 @@
     <author>NCBI User</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unique title (fewer than 255 characters) that describes the overall study.  A working title from the associated manuscript may be suitable.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Thorough description of the goals and objectives of this study.  A working abstract from the associated manuscript may be suitable.  Include as much text as necessary.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Thorough description of the goals and objectives of this study.  A working abstract from the associated manuscript may be suitable.  Include as much text as necessary.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Describe the SAMPLES.
-Include what types of Samples are analyzed, if replicates are included, are there control and/or reference Samples, etc.
-Do not include protocols/methods.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Format:  Firstname, Initial, Lastname
-Example:  Jane, Doe
-Example:  Yixin, Wang
-Example:  John, H, Smith
-Example:  Charles,E,Determan Jr
-Example:  Monique,G,van der Wijst
-Example:  Mark, Anderson Dumont
-Each contributor on a separate line.
-Add as many contributor lines as needed.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Format:  Firstname, Initial, Lastname
-Example:  Jane, Doe
-Example:  Yixin, Wang
-Example:  John, H, Smith
-Example:  Charles,E,Determan Jr
-Example:  Monique,G,van der Wijst
-Example:  Mark, Anderson Dumont
-Each contributor on a separate line.
-Add as many contributor lines as needed.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>If you submit a processed data file corresponding to *multiple* Samples, include the processed file here.  
-For example:  FPKMs_allsamples.txt</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>A unique and arbitrary identifier for each sample. This information will not appear in the final records and is only used as an internal reference. 
+Each row represents a GEO Sample record (GSM).</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The file should have unique column names that match unique descriptors in metadata SAMPLES  (for example, "library name" descriptors).  An exception would be single-cell submissions.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>A unique and arbitrary identifier for each sample. This information will not appear in the final records and is only used as an internal reference. 
-Each row represents a GEO Sample record (GSM).</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1117,7 +979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1131,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1158,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1185,7 +1047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1212,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1239,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1276,7 +1138,35 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Type of molecule that was extracted from the biological material. Include one of the following: 
+          <t>Add characteristics such as:  
+tissue
+cell line
+cell type
+strain
+genotype
+developmental stage
+sex
+treatment
+time
+disease state
+tumor stage
+ChIP antibody
+etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Type of molecule that was extracted from the biological material.       
+Include one of the following: 
 total RNA
 polyA RNA
 cytoplasmic RNA
@@ -1287,7 +1177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J26" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1301,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K26" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1373,7 +1263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L26" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1400,7 +1290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M26" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1413,28 +1303,11 @@
           <t>Exact name of the file containing the processed data.  
 For example:  Hela_H3K4me3.bw
 The same processed file may be listed for multiple Samples.
-Multiple 'processed data file' columns may be included if multiple processed files exist for a Sample (as in EXAMPLE_ChIPseq worksheet).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N26" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Exact name of the file containing the processed data.  
-For example:  Hela_H3K4me3.bw
-The same processed file may be listed for multiple Samples.
-Multiple 'processed data file' columns may be included if multiple processed files exist for a Sample (as in EXAMPLE_ChIPseq worksheet).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O26" authorId="0" shapeId="0">
+Multiple 'processed data file' columns may be included if multiple processed files exist for a Sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P26" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1466,39 +1339,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q26" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Exact name of the file containing the raw data.
-For example:  135_S1_L001_R1_001.fastq.gz
-Additional 'raw file' columns may be included if multiple raw files exist for a Sample.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R26" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Exact name of the file containing the raw data.
-For example:  135_S1_L001_R1_001.fastq.gz
-Additional 'raw file' columns may be included if multiple raw files exist for a Sample.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A40" authorId="0" shapeId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>NCBI User</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1512,7 +1363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1526,7 +1377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1564,7 +1415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1578,7 +1429,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Describe the library construction protocol.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1626,7 +1491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A47" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1647,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1668,7 +1533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1689,7 +1554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A50" authorId="0" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1710,7 +1575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1731,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A52" authorId="0" shapeId="0">
+    <comment ref="A17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1755,21 +1620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A53" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>For each processed data file type, provide a description of the format and content.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A54" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1787,13 +1638,365 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>NCBI User</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unique title (fewer than 255 characters) that describes the overall study.  A working title from the associated manuscript may be suitable.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thorough description of the goals and objectives of this study.  A working abstract from the associated manuscript may be suitable.  Include as much text as necessary.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thorough description of the goals and objectives of this study.  A working abstract from the associated manuscript may be suitable.  Include as much text as necessary.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Describe the SAMPLES.
+Include what types of Samples are analyzed, if replicates are included, are there control and/or reference Samples, etc.
+Do not include protocols/methods.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Format:  Firstname, Initial, Lastname
+Example:  Jane, Doe
+Example:  Yixin, Wang
+Example:  John, H, Smith
+Example:  Charles,E,Determan Jr
+Example:  Monique,G,van der Wijst
+Example:  Mark, Anderson Dumont
+Each contributor on a separate line.
+Add as many contributor lines as needed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Format:  Firstname, Initial, Lastname
+Example:  Jane, Doe
+Example:  Yixin, Wang
+Example:  John, H, Smith
+Example:  Charles,E,Determan Jr
+Example:  Monique,G,van der Wijst
+Example:  Mark, Anderson Dumont
+Each contributor on a separate line.
+Add as many contributor lines as needed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Format:  Firstname, Initial, Lastname
+Example:  Jane, Doe
+Example:  Yixin, Wang
+Example:  John, H, Smith
+Example:  Charles,E,Determan Jr
+Example:  Monique,G,van der Wijst
+Example:  Mark, Anderson Dumont
+Each contributor on a separate line.
+Add as many contributor lines as needed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Format:  Firstname, Initial, Lastname
+Example:  Jane, Doe
+Example:  Yixin, Wang
+Example:  John, H, Smith
+Example:  Charles,E,Determan Jr
+Example:  Monique,G,van der Wijst
+Example:  Mark, Anderson Dumont
+Each contributor on a separate line.
+Add as many contributor lines as needed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Format:  Firstname, Initial, Lastname
+Example:  Jane, Doe
+Example:  Yixin, Wang
+Example:  John, H, Smith
+Example:  Charles,E,Determan Jr
+Example:  Monique,G,van der Wijst
+Example:  Mark, Anderson Dumont
+Each contributor on a separate line.
+Add as many contributor lines as needed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If you submit a processed data file corresponding to *multiple* Samples, include the processed file here.  
+For example:  FPKMs_allsamples.txt</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The file should have unique column names that match unique descriptors in metadata SAMPLES  (for example, "library name" descriptors).  An exception would be single-cell submissions.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>NCBI User</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unique title (fewer than 255 characters) that describes the overall study.  A working title from the associated manuscript may be suitable.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thorough description of the goals and objectives of this study.  A working abstract from the associated manuscript may be suitable.  Include as much text as necessary.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thorough description of the goals and objectives of this study.  A working abstract from the associated manuscript may be suitable.  Include as much text as necessary.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Describe the SAMPLES.
+Include what types of Samples are analyzed, if replicates are included, are there control and/or reference Samples, etc.
+Do not include protocols/methods.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Format:  Firstname, Initial, Lastname
+Example:  Jane, Doe
+Example:  Yixin, Wang
+Example:  John, H, Smith
+Example:  Charles,E,Determan Jr
+Example:  Monique,G,van der Wijst
+Example:  Mark, Anderson Dumont
+Each contributor on a separate line.
+Add as many contributor lines as needed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Format:  Firstname, Initial, Lastname
+Example:  Jane, Doe
+Example:  Yixin, Wang
+Example:  John, H, Smith
+Example:  Charles,E,Determan Jr
+Example:  Monique,G,van der Wijst
+Example:  Mark, Anderson Dumont
+Each contributor on a separate line.
+Add as many contributor lines as needed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If you submit a processed data file corresponding to *multiple* Samples, include the processed file here.  
+For example:  FPKMs_allsamples.txt</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The file should have unique column names that match unique descriptors in metadata SAMPLES  (for example, "library name" descriptors).  An exception would be single-cell submissions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1818,7 +2021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1845,7 +2048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1859,7 +2062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1886,7 +2089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1913,7 +2116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1940,7 +2143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1967,7 +2170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1994,7 +2197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2004,35 +2207,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Add characteristics such as:  
-tissue
-cell line
-cell type
-strain
-genotype
-developmental stage
-sex
-treatment
-time
-disease state
-tumor stage
-ChIP antibody
-etc.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Type of molecule that was extracted from the biological material.       
-Include one of the following: 
+          <t>Type of molecule that was extracted from the biological material. Include one of the following: 
 total RNA
 polyA RNA
 cytoplasmic RNA
@@ -2043,7 +2218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="J26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2057,7 +2232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="K26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2129,7 +2304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="L26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2156,7 +2331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="M26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2169,11 +2344,28 @@
           <t>Exact name of the file containing the processed data.  
 For example:  Hela_H3K4me3.bw
 The same processed file may be listed for multiple Samples.
-Multiple 'processed data file' columns may be included if multiple processed files exist for a Sample.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+Multiple 'processed data file' columns may be included if multiple processed files exist for a Sample (as in EXAMPLE_ChIPseq worksheet).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exact name of the file containing the processed data.  
+For example:  Hela_H3K4me3.bw
+The same processed file may be listed for multiple Samples.
+Multiple 'processed data file' columns may be included if multiple processed files exist for a Sample (as in EXAMPLE_ChIPseq worksheet).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2189,7 +2381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2205,17 +2397,39 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>NCBI User</author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="Q26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exact name of the file containing the raw data.
+For example:  135_S1_L001_R1_001.fastq.gz
+Additional 'raw file' columns may be included if multiple raw files exist for a Sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exact name of the file containing the raw data.
+For example:  135_S1_L001_R1_001.fastq.gz
+Additional 'raw file' columns may be included if multiple raw files exist for a Sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2229,7 +2443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2243,7 +2457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2257,7 +2471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2281,7 +2495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2295,21 +2509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Describe the library construction protocol.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2357,7 +2557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2378,7 +2578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2399,7 +2599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2420,7 +2620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2441,7 +2641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2462,7 +2662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="A52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2486,7 +2686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2500,217 +2700,17 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>NCBI User</author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unique title (fewer than 255 characters) that describes the overall study.  A working title from the associated manuscript may be suitable.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Thorough description of the goals and objectives of this study.  A working abstract from the associated manuscript may be suitable.  Include as much text as necessary.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Thorough description of the goals and objectives of this study.  A working abstract from the associated manuscript may be suitable.  Include as much text as necessary.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Describe the SAMPLES.
-Include what types of Samples are analyzed, if replicates are included, are there control and/or reference Samples, etc.
-Do not include protocols/methods.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Format:  Firstname, Initial, Lastname
-Example:  Jane, Doe
-Example:  Yixin, Wang
-Example:  John, H, Smith
-Example:  Charles,E,Determan Jr
-Example:  Monique,G,van der Wijst
-Example:  Mark, Anderson Dumont
-Each contributor on a separate line.
-Add as many contributor lines as needed.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Format:  Firstname, Initial, Lastname
-Example:  Jane, Doe
-Example:  Yixin, Wang
-Example:  John, H, Smith
-Example:  Charles,E,Determan Jr
-Example:  Monique,G,van der Wijst
-Example:  Mark, Anderson Dumont
-Each contributor on a separate line.
-Add as many contributor lines as needed.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Format:  Firstname, Initial, Lastname
-Example:  Jane, Doe
-Example:  Yixin, Wang
-Example:  John, H, Smith
-Example:  Charles,E,Determan Jr
-Example:  Monique,G,van der Wijst
-Example:  Mark, Anderson Dumont
-Each contributor on a separate line.
-Add as many contributor lines as needed.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Format:  Firstname, Initial, Lastname
-Example:  Jane, Doe
-Example:  Yixin, Wang
-Example:  John, H, Smith
-Example:  Charles,E,Determan Jr
-Example:  Monique,G,van der Wijst
-Example:  Mark, Anderson Dumont
-Each contributor on a separate line.
-Add as many contributor lines as needed.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Format:  Firstname, Initial, Lastname
-Example:  Jane, Doe
-Example:  Yixin, Wang
-Example:  John, H, Smith
-Example:  Charles,E,Determan Jr
-Example:  Monique,G,van der Wijst
-Example:  Mark, Anderson Dumont
-Each contributor on a separate line.
-Add as many contributor lines as needed.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>If you submit a processed data file corresponding to *multiple* Samples, include the processed file here.  
-For example:  FPKMs_allsamples.txt</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The file should have unique column names that match unique descriptors in metadata SAMPLES  (for example, "library name" descriptors).  An exception would be single-cell submissions.</t>
+    <comment ref="A54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>For each processed data file type, provide a description of the format and content.</t>
         </r>
       </text>
     </comment>
@@ -8973,18 +8973,7 @@
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="54" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -9003,7 +8992,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
@@ -10731,7 +10731,7 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -10743,31 +10743,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="92" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="92"/>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="100"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="91"/>
+      <c r="B4" s="101"/>
       <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="99"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
     </row>
     <row r="6" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -10864,79 +10864,79 @@
       <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="8"/>
       <c r="D18" s="13"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="98"/>
+      <c r="B19" s="95"/>
     </row>
     <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="98" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="92"/>
+      <c r="B20" s="98"/>
     </row>
     <row r="21" spans="1:6" ht="315" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="B21" s="92"/>
+      <c r="B21" s="98"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="91"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="91"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="101"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="91"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="categories"/>
@@ -12380,7 +12380,7 @@
   </sheetPr>
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -13704,7 +13704,7 @@
   </sheetPr>
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B55"/>
     </sheetView>
   </sheetViews>
@@ -14393,1344 +14393,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R68"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" style="21" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="25" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="83.7109375" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="62" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:16" s="84" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-    </row>
-    <row r="4" spans="1:16" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-    </row>
-    <row r="6" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-    </row>
-    <row r="8" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
-        <v>303</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="66"/>
-    </row>
-    <row r="15" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-    </row>
-    <row r="17" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-    </row>
-    <row r="18" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-    </row>
-    <row r="19" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-    </row>
-    <row r="21" spans="1:18" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="42"/>
-    </row>
-    <row r="22" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44"/>
-    </row>
-    <row r="23" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="44"/>
-    </row>
-    <row r="24" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="44"/>
-    </row>
-    <row r="25" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="44"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="R26" s="71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>332</v>
-      </c>
-      <c r="C27" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="K27" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="M27" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="O27" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="P27" s="78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="M28" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="O28" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="P28" s="78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>334</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="K29" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="M29" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="O29" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>335</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="K30" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="M30" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="O30" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="P30" s="78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="K31" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="M31" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="O31" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="P31" s="78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="K32" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="M32" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="O32" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="P32" s="78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>338</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="K33" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="M33" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="O33" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="P33" s="78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>339</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="M34" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="O34" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="P34" s="78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-    </row>
-    <row r="36" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-    </row>
-    <row r="37" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="42"/>
-    </row>
-    <row r="38" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="44"/>
-    </row>
-    <row r="39" spans="1:16" s="87" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="86"/>
-    </row>
-    <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="B40" s="78" t="s">
-        <v>622</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-    </row>
-    <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="65" t="s">
-        <v>324</v>
-      </c>
-      <c r="B41" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-    </row>
-    <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
-        <v>324</v>
-      </c>
-      <c r="B42" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-    </row>
-    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-    </row>
-    <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-    </row>
-    <row r="45" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-    </row>
-    <row r="46" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-    </row>
-    <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-    </row>
-    <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-    </row>
-    <row r="49" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-    </row>
-    <row r="50" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-    </row>
-    <row r="51" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="73"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-    </row>
-    <row r="52" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65" t="s">
-        <v>341</v>
-      </c>
-      <c r="B52" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
-    </row>
-    <row r="53" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-    </row>
-    <row r="54" spans="1:16" s="88" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-    </row>
-    <row r="55" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-    </row>
-    <row r="56" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="42"/>
-    </row>
-    <row r="57" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="44"/>
-    </row>
-    <row r="58" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="44"/>
-    </row>
-    <row r="59" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="44"/>
-    </row>
-    <row r="60" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="51"/>
-    </row>
-    <row r="61" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" s="78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
@@ -17926,12 +16588,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18303,7 +16965,7 @@
       <c r="A18" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="91" t="s">
         <v>633</v>
       </c>
       <c r="C18" s="29"/>
@@ -18328,7 +16990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -18481,6 +17143,1344 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R68"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="21" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="25" style="21" customWidth="1"/>
+    <col min="19" max="16384" width="83.7109375" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="62" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:16" s="84" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+    </row>
+    <row r="4" spans="1:16" s="40" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+    </row>
+    <row r="7" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+    </row>
+    <row r="8" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="66"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="67"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:18" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="42"/>
+    </row>
+    <row r="22" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="44"/>
+    </row>
+    <row r="23" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="44"/>
+    </row>
+    <row r="24" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="44"/>
+    </row>
+    <row r="25" spans="1:18" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="44"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" s="71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="O27" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" s="78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" s="78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="O30" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="M31" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="O31" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" s="78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" s="78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" s="78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="O34" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34" s="78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="72"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+    </row>
+    <row r="36" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+    </row>
+    <row r="37" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="42"/>
+    </row>
+    <row r="38" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="44"/>
+    </row>
+    <row r="39" spans="1:16" s="87" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="85" t="s">
+        <v>322</v>
+      </c>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="86"/>
+    </row>
+    <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" s="78" t="s">
+        <v>622</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+    </row>
+    <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+    </row>
+    <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+    </row>
+    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+    </row>
+    <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+    </row>
+    <row r="45" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+    </row>
+    <row r="46" spans="1:16" s="41" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="65"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+    </row>
+    <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+    </row>
+    <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+    </row>
+    <row r="49" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+    </row>
+    <row r="50" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+    </row>
+    <row r="51" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="73"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+    </row>
+    <row r="52" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+    </row>
+    <row r="53" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+    </row>
+    <row r="54" spans="1:16" s="88" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="67"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+    </row>
+    <row r="55" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+    </row>
+    <row r="56" spans="1:16" s="63" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="42"/>
+    </row>
+    <row r="57" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="44"/>
+    </row>
+    <row r="58" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="44"/>
+    </row>
+    <row r="59" spans="1:16" s="64" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="44"/>
+    </row>
+    <row r="60" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+    </row>
+    <row r="61" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="36" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
